--- a/Python&C++_raw_data.xlsx
+++ b/Python&C++_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/currlin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146280E4-2AEE-AB40-A0F6-4B461E6BD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF928079-1C9F-B54C-9F7A-8B293B7332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5840" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="1" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
+    <workbookView xWindow="13360" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
   <si>
     <t>Algorithm</t>
   </si>
@@ -235,16 +235,38 @@
   </si>
   <si>
     <t>Runtime Comparison</t>
+  </si>
+  <si>
+    <t>Problem #</t>
+  </si>
+  <si>
+    <t>912A</t>
+  </si>
+  <si>
+    <t>912B</t>
+  </si>
+  <si>
+    <t>Algo Avg Memory (MB)</t>
+  </si>
+  <si>
+    <t>Algo Avg Runtime (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,8 +292,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,27 +609,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA1458E-634C-BA41-A39D-EB46A816CF9B}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -614,1261 +641,1478 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D35" ca="1" si="0">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F35" ca="1" si="0">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
         <v>36.332999999999998</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>31</v>
       </c>
       <c r="G4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>39</v>
-      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6">
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="G6">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+      <c r="H6">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8">
         <f t="shared" ca="1" si="0"/>
         <v>32.667000000000002</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>116.178</v>
+      </c>
+      <c r="F10">
         <f t="shared" ca="1" si="0"/>
         <v>51.2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>51.3</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>51.6</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>50.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>52.3</v>
+      </c>
+      <c r="F11">
         <f t="shared" ca="1" si="0"/>
         <v>7.2329999999999997</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>7.5</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12">
         <f t="shared" ca="1" si="0"/>
         <v>165.667</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>169</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>158</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13">
         <f t="shared" ca="1" si="0"/>
         <v>14.333</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
       </c>
       <c r="G13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14">
         <f t="shared" ca="1" si="0"/>
         <v>131.667</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>140</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>134</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15">
         <f t="shared" ca="1" si="0"/>
         <v>135.333</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>138</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>134</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>83.466999999999999</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="0"/>
         <v>33.332999999999998</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>33</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>35</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>2.9</v>
       </c>
       <c r="F17">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
         <v>29.667000000000002</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>34</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20">
         <f t="shared" ca="1" si="0"/>
         <v>187.4</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>186.9</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>186.7</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>188.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21">
         <f t="shared" ca="1" si="0"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>8.6</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>43.811</v>
+      </c>
+      <c r="F22">
         <f t="shared" ca="1" si="0"/>
         <v>23.1</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>22.6</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>22.7</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="F23">
         <f t="shared" ca="1" si="0"/>
         <v>2.133</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1.9</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
+        <v>733</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24">
         <f t="shared" ca="1" si="0"/>
         <v>63.332999999999998</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>64</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>64</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25">
         <f t="shared" ca="1" si="0"/>
         <v>1.333</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
+        <v>994</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>48</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>42</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27">
         <f t="shared" ca="1" si="0"/>
         <v>3.6669999999999998</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>71.033000000000001</v>
+      </c>
+      <c r="F28">
         <f t="shared" ca="1" si="0"/>
         <v>34.767000000000003</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>35.200000000000003</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>34.799999999999997</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>18.510999999999999</v>
+      </c>
+      <c r="F29">
         <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>3.6</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>3.4</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
+        <v>406</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30">
         <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>76</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>80</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31">
         <f t="shared" ca="1" si="0"/>
         <v>26.667000000000002</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>28</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
+        <v>452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32">
         <f t="shared" ca="1" si="0"/>
         <v>100.333</v>
-      </c>
-      <c r="E32">
-        <v>101.5</v>
-      </c>
-      <c r="F32">
-        <v>98</v>
       </c>
       <c r="G32">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
+      <c r="H32">
+        <v>98</v>
+      </c>
+      <c r="I32">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33">
         <f t="shared" ca="1" si="0"/>
         <v>25.266999999999999</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>24.7</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>25.3</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>25.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>86.555999999999997</v>
+      </c>
+      <c r="F34">
         <f t="shared" ca="1" si="0"/>
         <v>40.667000000000002</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>43</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>37</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="F35">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D65" ca="1" si="1">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
+      <c r="C36">
+        <v>374</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36">
+        <f t="shared" ref="F36:F65" ca="1" si="1">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
         <v>29</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>37</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>27</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
+      <c r="C38">
+        <v>704</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38">
         <f t="shared" ca="1" si="1"/>
         <v>190</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>189</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>188</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>22</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>26</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>65.111000000000004</v>
+      </c>
+      <c r="F40">
         <f t="shared" ca="1" si="1"/>
         <v>52.667000000000002</v>
-      </c>
-      <c r="E40">
-        <v>53</v>
-      </c>
-      <c r="F40">
-        <v>52</v>
       </c>
       <c r="G40">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
+      <c r="H40">
+        <v>52</v>
+      </c>
+      <c r="I40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>21.222000000000001</v>
+      </c>
+      <c r="F41">
         <f t="shared" ca="1" si="1"/>
         <v>22.667000000000002</v>
-      </c>
-      <c r="E41">
-        <v>24</v>
-      </c>
-      <c r="F41">
-        <v>20</v>
       </c>
       <c r="G41">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
+      <c r="C42">
+        <v>438</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42">
         <f t="shared" ca="1" si="1"/>
         <v>88</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>89</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>98</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43">
         <f t="shared" ca="1" si="1"/>
         <v>35.667000000000002</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>38</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>36</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
+      <c r="C44">
+        <v>567</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44">
         <f t="shared" ca="1" si="1"/>
         <v>54.667000000000002</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>54</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>59</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45">
         <f t="shared" ca="1" si="1"/>
         <v>5.3330000000000002</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0), INDIRECT("R[6]C[1]", 0)), 3)</f>
+        <v>89.525000000000006</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="1"/>
         <v>118.667</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>118</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>118</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0), INDIRECT("R[6]C[1]", 0)), 3)</f>
+        <v>17.582999999999998</v>
+      </c>
+      <c r="F47">
         <f t="shared" ca="1" si="1"/>
         <v>15.667</v>
-      </c>
-      <c r="E47">
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
       </c>
       <c r="G47">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48">
         <f t="shared" ca="1" si="1"/>
         <v>68.667000000000002</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>70</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>68</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49">
         <f t="shared" ca="1" si="1"/>
         <v>7.3330000000000002</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50">
         <f t="shared" ca="1" si="1"/>
         <v>119.56699999999999</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>118.8</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>122.4</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>117.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="E51">
-        <v>372</v>
-      </c>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51">
-        <v>394</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.5</v>
       </c>
       <c r="G51">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H51">
+        <v>39.4</v>
+      </c>
+      <c r="I51">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52">
         <f t="shared" ca="1" si="1"/>
         <v>51.2</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>51.8</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>51.2</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>50.6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53">
         <f t="shared" ca="1" si="1"/>
         <v>9.8330000000000002</v>
       </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="F53">
-        <v>10</v>
-      </c>
       <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
         <v>10.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="1"/>
+      <c r="C54">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
         <v>31</v>
       </c>
-      <c r="E54">
+      <c r="F54">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G54">
         <v>32</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>28</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="F55">
         <f t="shared" ca="1" si="1"/>
         <v>0.66700000000000004</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
+      <c r="C56">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>32</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>26</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1"/>
       <c r="F57">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
+      <c r="C58">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>40</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>33</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59">
         <f t="shared" ca="1" si="1"/>
         <v>9.6669999999999998</v>
-      </c>
-      <c r="E59">
-        <v>11</v>
-      </c>
-      <c r="F59">
-        <v>7</v>
       </c>
       <c r="G59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>98.144999999999996</v>
+      </c>
+      <c r="F60">
         <f t="shared" ca="1" si="1"/>
         <v>52.966999999999999</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>52.6</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>53.2</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>53.1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>10.545</v>
+      </c>
+      <c r="F61">
         <f t="shared" ca="1" si="1"/>
         <v>5.4669999999999996</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>5.7</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>5.2</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>5.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
         <f t="shared" ca="1" si="1"/>
         <v>68.466999999999999</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>67.400000000000006</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>69.099999999999994</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
         <f t="shared" ca="1" si="1"/>
         <v>6.1669999999999998</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>5.9</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>6.5</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>6.1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>56</v>
       </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
+      <c r="C64">
+        <v>344</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
         <f t="shared" ca="1" si="1"/>
         <v>173</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>172</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>172</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>20</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>21</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>57</v>
       </c>
@@ -1880,29 +2124,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6BC281-BF67-C648-89ED-8E9EFD420522}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1910,1261 +2156,1440 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D35" ca="1" si="0">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>16.751000000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F35" ca="1" si="0">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
         <v>16.73</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>16.760000000000002</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>16.71</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>16.72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>11.035</v>
+      </c>
+      <c r="F5">
         <f t="shared" ca="1" si="0"/>
         <v>12.587</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>12.62</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>12.54</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>12.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <f t="shared" ca="1" si="0"/>
         <v>16.72</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>16.8</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>16.61</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>16.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
         <f t="shared" ca="1" si="0"/>
         <v>12.047000000000001</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>11.91</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>12.12</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>12.11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <f t="shared" ca="1" si="0"/>
         <v>16.803000000000001</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>16.84</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>16.829999999999998</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
         <f t="shared" ca="1" si="0"/>
         <v>8.4700000000000006</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>8.43</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>23.959</v>
+      </c>
+      <c r="F10">
         <f t="shared" ca="1" si="0"/>
         <v>30.86</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>30.79</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>30.86</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>30.93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>38.375999999999998</v>
+      </c>
+      <c r="F11">
         <f t="shared" ca="1" si="0"/>
         <v>70.52</v>
-      </c>
-      <c r="E11">
-        <v>70.59</v>
-      </c>
-      <c r="F11">
-        <v>70.38</v>
       </c>
       <c r="G11">
         <v>70.59</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>70.38</v>
+      </c>
+      <c r="I11">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <f t="shared" ca="1" si="0"/>
         <v>18.056999999999999</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>18.010000000000002</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>18.09</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>18.07</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
         <f t="shared" ca="1" si="0"/>
         <v>26.96</v>
-      </c>
-      <c r="E13">
-        <v>26.92</v>
-      </c>
-      <c r="F13">
-        <v>27.04</v>
       </c>
       <c r="G13">
         <v>26.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>27.04</v>
+      </c>
+      <c r="I13">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <f t="shared" ca="1" si="0"/>
         <v>22.96</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>23</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>22.92</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>22.96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <f t="shared" ca="1" si="0"/>
         <v>17.646999999999998</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>17.690000000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>17.690000000000001</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>16.617000000000001</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="0"/>
         <v>16.556999999999999</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>16.68</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>16.510000000000002</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>16.48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>10.038</v>
+      </c>
+      <c r="F17">
         <f t="shared" ca="1" si="0"/>
         <v>7.593</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>7.6</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>7.54</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>7.64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
         <v>16.486999999999998</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>16.440000000000001</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>16.46</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
         <f t="shared" ca="1" si="0"/>
         <v>9.3330000000000002</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>9.36</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>9.35</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <f t="shared" ca="1" si="0"/>
         <v>16.806999999999999</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>16.809999999999999</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>16.86</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>16.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <f t="shared" ca="1" si="0"/>
         <v>13.186999999999999</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>13.17</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>13.23</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>13.16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>17.478999999999999</v>
+      </c>
+      <c r="F22">
         <f t="shared" ca="1" si="0"/>
         <v>18.927</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>18.98</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>19</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>18.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>16.318000000000001</v>
+      </c>
+      <c r="F23">
         <f t="shared" ca="1" si="0"/>
         <v>15.923</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>15.83</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>16.059999999999999</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>15.88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
+        <v>733</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <f t="shared" ca="1" si="0"/>
         <v>16.927</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>16.920000000000002</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>16.86</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
         <f t="shared" ca="1" si="0"/>
         <v>16.783000000000001</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>16.850000000000001</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>16.72</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>16.78</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
+        <v>994</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <f t="shared" ca="1" si="0"/>
         <v>16.582999999999998</v>
-      </c>
-      <c r="E26">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="F26">
-        <v>16.59</v>
       </c>
       <c r="G26">
         <v>16.579999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
+      <c r="H26">
+        <v>16.59</v>
+      </c>
+      <c r="I26">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <f t="shared" ca="1" si="0"/>
         <v>16.247</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>16.13</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>16.239999999999998</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>16.37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>32.518000000000001</v>
+      </c>
+      <c r="F28">
         <f t="shared" ca="1" si="0"/>
         <v>17.797000000000001</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>17.8</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>17.8</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>17.79</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>53.377000000000002</v>
+      </c>
+      <c r="F29">
         <f t="shared" ca="1" si="0"/>
         <v>51.1</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>51.15</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>51.04</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>51.11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
+        <v>406</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <f t="shared" ca="1" si="0"/>
         <v>17.117000000000001</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>17.190000000000001</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>17.079999999999998</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
         <f t="shared" ca="1" si="0"/>
         <v>15.62</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>15.64</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>15.5</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>15.72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
+        <v>452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
         <f t="shared" ca="1" si="0"/>
         <v>62.64</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>62.88</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>62.23</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>62.81</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
         <f t="shared" ca="1" si="0"/>
         <v>93.41</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>93.52</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>93.4</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>93.31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>17.122</v>
+      </c>
+      <c r="F34">
         <f t="shared" ca="1" si="0"/>
         <v>16.887</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>16.829999999999998</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>16.88</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>16.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>17.234000000000002</v>
+      </c>
+      <c r="F35">
         <f t="shared" ca="1" si="0"/>
         <v>13.92</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>13.98</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>13.9</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>13.88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D65" ca="1" si="1">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
+      <c r="C36">
+        <v>374</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F65" ca="1" si="1">ROUND(AVERAGE(INDIRECT("RC[1]:RC[3]", 0)), 3)</f>
         <v>16.393000000000001</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>16.45</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>16.36</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>16.37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
         <f t="shared" ca="1" si="1"/>
         <v>7.5529999999999999</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>7.4</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>7.67</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>7.59</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
+      <c r="C38">
+        <v>704</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <f t="shared" ca="1" si="1"/>
         <v>18.087</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>18.100000000000001</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>18.09</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>18.07</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <f t="shared" ca="1" si="1"/>
         <v>30.23</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>30.22</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>30.27</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>30.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>16.956</v>
+      </c>
+      <c r="F40">
         <f t="shared" ca="1" si="1"/>
         <v>16.542999999999999</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>16.54</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>16.53</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>12.824999999999999</v>
+      </c>
+      <c r="F41">
         <f t="shared" ca="1" si="1"/>
         <v>14.473000000000001</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>14.38</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>14.47</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>14.57</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
+      <c r="C42">
+        <v>438</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
         <f t="shared" ca="1" si="1"/>
         <v>17.562999999999999</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>17.57</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>17.62</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>17.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <f t="shared" ca="1" si="1"/>
         <v>15.29</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>15.41</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>15.33</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>15.13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
+      <c r="C44">
+        <v>567</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
         <f t="shared" ca="1" si="1"/>
         <v>16.763000000000002</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>16.72</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>16.71</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>16.86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <f t="shared" ca="1" si="1"/>
         <v>8.7129999999999992</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>8.77</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>8.68</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>8.69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0), INDIRECT("R[6]C[1]", 0)), 3)</f>
+        <v>17.41</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="1"/>
         <v>21.187000000000001</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>21.14</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>21.24</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>21.18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0), INDIRECT("R[6]C[1]", 0)), 3)</f>
+        <v>32.948</v>
+      </c>
+      <c r="F47">
         <f t="shared" ca="1" si="1"/>
         <v>22.863</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>22.9</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>22.7</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>22.99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
         <f t="shared" ca="1" si="1"/>
         <v>19.943000000000001</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>19.96</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>19.97</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <f t="shared" ca="1" si="1"/>
         <v>20.68</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>20.7</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>20.54</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>20.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <f t="shared" ca="1" si="1"/>
         <v>3.657</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>3.64</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>3.6869999999999998</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
         <f t="shared" ca="1" si="1"/>
         <v>17.829999999999998</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>17.82</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>17.821000000000002</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
         <f t="shared" ca="1" si="1"/>
         <v>24.853000000000002</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>24.92</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>24.79</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>24.85</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
         <f t="shared" ca="1" si="1"/>
         <v>70.42</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>70.489999999999995</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>70.41</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>70.36</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
+      <c r="C54">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>17.521000000000001</v>
+      </c>
+      <c r="F54">
         <f t="shared" ca="1" si="1"/>
         <v>16.573</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>16.59</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>16.510000000000002</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>16.62</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>14.337999999999999</v>
+      </c>
+      <c r="F55">
         <f t="shared" ca="1" si="1"/>
         <v>10.047000000000001</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>10.08</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>10.08</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>9.98</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
+      <c r="C56">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56">
         <f t="shared" ca="1" si="1"/>
         <v>16.536999999999999</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>16.48</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>16.559999999999999</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>16.57</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
         <f t="shared" ca="1" si="1"/>
         <v>10.077</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>10.199999999999999</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>10.02</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>10.01</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
+      <c r="C58">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
         <f t="shared" ca="1" si="1"/>
         <v>19.452999999999999</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>19.399999999999999</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>19.48</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>19.48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
         <f t="shared" ca="1" si="1"/>
         <v>22.89</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>22.99</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>22.9</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>22.78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
       </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>23.818999999999999</v>
+      </c>
+      <c r="F60">
         <f t="shared" ca="1" si="1"/>
         <v>29.867000000000001</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>29.87</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>29.85</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>29.88</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <f ca="1">ROUND(AVERAGE(INDIRECT("RC[1]", 0), INDIRECT("R[2]C[1]", 0), INDIRECT("R[4]C[1]", 0)), 3)</f>
+        <v>38.753</v>
+      </c>
+      <c r="F61">
         <f t="shared" ca="1" si="1"/>
         <v>61.6</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>61.63</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>61.69</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>61.48</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>54</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
         <f t="shared" ca="1" si="1"/>
         <v>20.74</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>20.68</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>20.81</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>20.73</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
         <f t="shared" ca="1" si="1"/>
         <v>27.45</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>27.46</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>27.44</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>27.45</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>56</v>
       </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
+      <c r="C64">
+        <v>344</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
         <f t="shared" ca="1" si="1"/>
         <v>20.85</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>20.89</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>20.86</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>20.8</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
         <f t="shared" ca="1" si="1"/>
         <v>27.21</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>27.12</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>27.23</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>27.28</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>64</v>
       </c>

--- a/Python&C++_raw_data.xlsx
+++ b/Python&C++_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/currlin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF928079-1C9F-B54C-9F7A-8B293B7332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458CFF9-82AF-8249-BA41-CFF3D72D3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
+    <workbookView xWindow="13360" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="1" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
   <si>
     <t>Algorithm</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Problem #</t>
   </si>
   <si>
-    <t>912A</t>
-  </si>
-  <si>
     <t>912B</t>
   </si>
   <si>
@@ -250,6 +247,33 @@
   </si>
   <si>
     <t>Algo Avg Runtime (ms)</t>
+  </si>
+  <si>
+    <t>53*</t>
+  </si>
+  <si>
+    <t>300*</t>
+  </si>
+  <si>
+    <t>200*</t>
+  </si>
+  <si>
+    <t>55*</t>
+  </si>
+  <si>
+    <t>452*</t>
+  </si>
+  <si>
+    <t>912A*</t>
+  </si>
+  <si>
+    <t>912B*</t>
+  </si>
+  <si>
+    <t>11*</t>
+  </si>
+  <si>
+    <t>15*</t>
   </si>
 </sst>
 </file>
@@ -611,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA1458E-634C-BA41-A39D-EB46A816CF9B}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -810,8 +834,8 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>53</v>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1045,8 +1069,8 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>300</v>
+      <c r="C20" t="s">
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1092,8 +1116,8 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>200</v>
+      <c r="C22" t="s">
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1233,8 +1257,8 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
-        <v>55</v>
+      <c r="C28" t="s">
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1327,8 +1351,8 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
-        <v>452</v>
+      <c r="C32" t="s">
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1751,7 +1775,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1795,7 +1819,7 @@
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1982,8 +2006,8 @@
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="C60">
-        <v>11</v>
+      <c r="C60" t="s">
+        <v>77</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2032,8 +2056,8 @@
       <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="C62">
-        <v>15</v>
+      <c r="C62" t="s">
+        <v>78</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -2126,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6BC281-BF67-C648-89ED-8E9EFD420522}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2162,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3236,7 +3260,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -3278,7 +3302,7 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>

--- a/Python&C++_raw_data.xlsx
+++ b/Python&C++_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/currlin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458CFF9-82AF-8249-BA41-CFF3D72D3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B8E06-2A03-C849-BFED-CE648EB0FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="1" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
+    <workbookView xWindow="13360" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{B94C2983-86F1-3E4F-A6C6-2BC2A6D6B109}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
   <si>
     <t>Algorithm</t>
   </si>
@@ -78,9 +78,6 @@
     <t>78_Subsets</t>
   </si>
   <si>
-    <t>Divide_&amp;_Conquer</t>
-  </si>
-  <si>
     <t>53_Max_Subarray</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>240_Search_2D_Matrix_II</t>
   </si>
   <si>
-    <t>Dynamic_Programming</t>
-  </si>
-  <si>
     <t>70_Climbing_Stairs</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>704_Binary_Search</t>
   </si>
   <si>
-    <t>Sliding_Window</t>
-  </si>
-  <si>
     <t>3_Longest_Substring_Without_Repeating_Characters</t>
   </si>
   <si>
@@ -274,6 +265,18 @@
   </si>
   <si>
     <t>15*</t>
+  </si>
+  <si>
+    <t>Divide &amp; Conquer</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA1458E-634C-BA41-A39D-EB46A816CF9B}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -665,13 +668,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -829,13 +832,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -882,7 +885,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>240</v>
@@ -970,10 +973,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -1023,7 +1026,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>198</v>
@@ -1067,10 +1070,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1111,13 +1114,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>733</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>994</v>
@@ -1252,13 +1255,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>406</v>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>374</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>704</v>
@@ -1534,10 +1537,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>438</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>567</v>
@@ -1675,10 +1678,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>56</v>
@@ -1728,7 +1731,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>57</v>
@@ -1772,10 +1775,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1816,10 +1819,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1860,10 +1863,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>94</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56">
         <v>144</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58">
         <v>230</v>
@@ -2001,13 +2004,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2054,10 +2057,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>344</v>
@@ -2138,7 +2141,7 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2150,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6BC281-BF67-C648-89ED-8E9EFD420522}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2172,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2180,25 +2183,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2340,10 +2343,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10">
         <v>53</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -2435,7 +2438,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>240</v>
@@ -2477,10 +2480,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>198</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>300</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>200</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>733</v>
@@ -2709,7 +2712,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>994</v>
@@ -2751,10 +2754,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>55</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>406</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>452</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>374</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>704</v>
@@ -3025,10 +3028,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3078,7 +3081,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>438</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>567</v>
@@ -3162,10 +3165,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>56</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>57</v>
@@ -3257,10 +3260,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -3299,10 +3302,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -3341,10 +3344,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>94</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56">
         <v>144</v>
@@ -3436,7 +3439,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58">
         <v>230</v>
@@ -3478,10 +3481,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C60">
         <v>11</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>15</v>
@@ -3573,7 +3576,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>344</v>
@@ -3615,7 +3618,7 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
